--- a/DATOS/PLANTILLA.xlsx
+++ b/DATOS/PLANTILLA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>botella</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>RADCOR_E4_6</t>
+  </si>
+  <si>
+    <t>presion_ctd</t>
+  </si>
+  <si>
+    <t>estacion</t>
+  </si>
+  <si>
+    <t>E21</t>
   </si>
 </sst>
 </file>
@@ -853,7 +862,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1004,6 +1013,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1342,11 +1357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1354,30 +1369,31 @@
     <col min="1" max="1" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="6"/>
-    <col min="6" max="6" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="4"/>
-    <col min="22" max="22" width="11.42578125" style="5"/>
-    <col min="23" max="23" width="11.42578125" style="3"/>
-    <col min="24" max="24" width="11.42578125" style="4"/>
-    <col min="25" max="16384" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="6"/>
+    <col min="7" max="7" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="4"/>
+    <col min="23" max="23" width="11.42578125" style="5"/>
+    <col min="24" max="24" width="11.42578125" style="3"/>
+    <col min="25" max="25" width="11.42578125" style="4"/>
+    <col min="26" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1" ht="15.75" thickTop="1">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="15.75" thickTop="1">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1387,59 +1403,62 @@
       <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>2</v>
+      <c r="I1" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="J1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -1449,49 +1468,52 @@
       <c r="C2" s="63">
         <v>0.34827546296296297</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="64">
         <v>43.421700000000001</v>
       </c>
-      <c r="E2" s="65">
+      <c r="F2" s="65">
         <v>-8.4367000000000001</v>
-      </c>
-      <c r="F2" s="66">
-        <v>11</v>
       </c>
       <c r="G2" s="66">
         <v>11</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="66">
+        <v>11</v>
+      </c>
+      <c r="I2" s="67">
         <v>6.6239999999999997</v>
       </c>
-      <c r="I2" s="56">
+      <c r="J2" s="56">
         <v>18.356200000000001</v>
       </c>
-      <c r="J2" s="68">
-        <v>2</v>
-      </c>
-      <c r="K2" s="56">
+      <c r="K2" s="68">
+        <v>2</v>
+      </c>
+      <c r="L2" s="56">
         <v>35.386299999999999</v>
       </c>
-      <c r="L2" s="68">
-        <v>2</v>
-      </c>
-      <c r="M2" s="56"/>
+      <c r="M2" s="68">
+        <v>2</v>
+      </c>
       <c r="N2" s="56"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="55"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="23"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="21"/>
       <c r="Z2" s="23"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" s="23"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="11" t="s">
         <v>46</v>
       </c>
@@ -1501,49 +1523,52 @@
       <c r="C3" s="63">
         <v>0.3480671296296296</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="64">
         <v>43.421700000000001</v>
       </c>
-      <c r="E3" s="65">
+      <c r="F3" s="65">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="F3" s="69">
+      <c r="G3" s="69">
         <v>9</v>
       </c>
-      <c r="G3" s="69">
+      <c r="H3" s="69">
         <v>21</v>
       </c>
-      <c r="H3" s="67">
+      <c r="I3" s="67">
         <v>11.189</v>
       </c>
-      <c r="I3" s="56">
+      <c r="J3" s="56">
         <v>18.129000000000001</v>
       </c>
-      <c r="J3" s="68">
-        <v>2</v>
-      </c>
-      <c r="K3" s="56">
+      <c r="K3" s="68">
+        <v>2</v>
+      </c>
+      <c r="L3" s="56">
         <v>35.3855</v>
       </c>
-      <c r="L3" s="68">
-        <v>2</v>
-      </c>
-      <c r="M3" s="56"/>
+      <c r="M3" s="68">
+        <v>2</v>
+      </c>
       <c r="N3" s="56"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="55"/>
       <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="21"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
       <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="23"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="21"/>
       <c r="Z3" s="23"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" s="23"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="11" t="s">
         <v>47</v>
       </c>
@@ -1553,49 +1578,52 @@
       <c r="C4" s="63">
         <v>0.34782407407407406</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="64">
         <v>43.421700000000001</v>
       </c>
-      <c r="E4" s="65">
+      <c r="F4" s="65">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="F4" s="66">
+      <c r="G4" s="66">
         <v>7</v>
       </c>
-      <c r="G4" s="66">
+      <c r="H4" s="66">
         <v>35</v>
       </c>
-      <c r="H4" s="67">
+      <c r="I4" s="67">
         <v>21.51</v>
       </c>
-      <c r="I4" s="56">
+      <c r="J4" s="56">
         <v>17.669</v>
       </c>
-      <c r="J4" s="68">
-        <v>2</v>
-      </c>
-      <c r="K4" s="56">
+      <c r="K4" s="68">
+        <v>2</v>
+      </c>
+      <c r="L4" s="56">
         <v>35.383200000000002</v>
       </c>
-      <c r="L4" s="68">
-        <v>2</v>
-      </c>
-      <c r="M4" s="56"/>
+      <c r="M4" s="68">
+        <v>2</v>
+      </c>
       <c r="N4" s="56"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="55"/>
       <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="60"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="59"/>
       <c r="V4" s="60"/>
       <c r="W4" s="60"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="11"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="21"/>
       <c r="Z4" s="11"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="11" t="s">
         <v>48</v>
       </c>
@@ -1605,49 +1633,52 @@
       <c r="C5" s="63">
         <v>0.3475462962962963</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="64">
         <v>43.421700000000001</v>
       </c>
-      <c r="E5" s="65">
+      <c r="F5" s="65">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="F5" s="66">
+      <c r="G5" s="66">
         <v>5</v>
       </c>
-      <c r="G5" s="66">
+      <c r="H5" s="66">
         <v>4</v>
       </c>
-      <c r="H5" s="67">
+      <c r="I5" s="67">
         <v>30.917999999999999</v>
       </c>
-      <c r="I5" s="56">
+      <c r="J5" s="56">
         <v>16.373999999999999</v>
       </c>
-      <c r="J5" s="68">
-        <v>2</v>
-      </c>
-      <c r="K5" s="56">
+      <c r="K5" s="68">
+        <v>2</v>
+      </c>
+      <c r="L5" s="56">
         <v>35.430999999999997</v>
       </c>
-      <c r="L5" s="68">
-        <v>2</v>
-      </c>
-      <c r="M5" s="56"/>
+      <c r="M5" s="68">
+        <v>2</v>
+      </c>
       <c r="N5" s="56"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="55"/>
       <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="21"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="56"/>
       <c r="U5" s="21"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="11"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="21"/>
       <c r="Z5" s="11"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1657,49 +1688,52 @@
       <c r="C6" s="63">
         <v>0.34721064814814812</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="64">
         <v>43.421700000000001</v>
       </c>
-      <c r="E6" s="65">
+      <c r="F6" s="65">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="F6" s="66">
+      <c r="G6" s="66">
         <v>3</v>
       </c>
-      <c r="G6" s="66">
+      <c r="H6" s="66">
         <v>56</v>
       </c>
-      <c r="H6" s="67">
+      <c r="I6" s="67">
         <v>40.850999999999999</v>
       </c>
-      <c r="I6" s="56">
+      <c r="J6" s="56">
         <v>15.8673</v>
       </c>
-      <c r="J6" s="68">
-        <v>2</v>
-      </c>
-      <c r="K6" s="56">
+      <c r="K6" s="68">
+        <v>2</v>
+      </c>
+      <c r="L6" s="56">
         <v>35.4407</v>
       </c>
-      <c r="L6" s="68">
-        <v>2</v>
-      </c>
-      <c r="M6" s="56"/>
+      <c r="M6" s="68">
+        <v>2</v>
+      </c>
       <c r="N6" s="56"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="56"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="21"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="21"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="11"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="21"/>
       <c r="Z6" s="11"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="11" t="s">
         <v>50</v>
       </c>
@@ -1709,49 +1743,52 @@
       <c r="C7" s="63">
         <v>0.34635416666666669</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="64">
         <v>43.421700000000001</v>
       </c>
-      <c r="E7" s="65">
+      <c r="F7" s="65">
         <v>-8.4367000000000001</v>
       </c>
-      <c r="F7" s="66">
+      <c r="G7" s="66">
         <v>1</v>
       </c>
-      <c r="G7" s="66">
+      <c r="H7" s="66">
         <v>4</v>
       </c>
-      <c r="H7" s="67">
+      <c r="I7" s="67">
         <v>71.603999999999999</v>
       </c>
-      <c r="I7" s="56">
+      <c r="J7" s="56">
         <v>13.8902</v>
       </c>
-      <c r="J7" s="68">
-        <v>2</v>
-      </c>
-      <c r="K7" s="56">
+      <c r="K7" s="68">
+        <v>2</v>
+      </c>
+      <c r="L7" s="56">
         <v>35.535200000000003</v>
       </c>
-      <c r="L7" s="68">
-        <v>2</v>
-      </c>
-      <c r="M7" s="56"/>
+      <c r="M7" s="68">
+        <v>2</v>
+      </c>
       <c r="N7" s="56"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="56"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="21"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="56"/>
       <c r="U7" s="21"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="11"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="21"/>
       <c r="Z7" s="11"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="11" t="s">
         <v>51</v>
       </c>
@@ -1761,49 +1798,52 @@
       <c r="C8" s="63">
         <v>0.42876157407407406</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="72">
+        <v>43</v>
+      </c>
+      <c r="E8" s="64">
         <v>43.363300000000002</v>
       </c>
-      <c r="E8" s="65">
+      <c r="F8" s="65">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="F8" s="66">
+      <c r="G8" s="66">
         <v>11</v>
       </c>
-      <c r="G8" s="66">
+      <c r="H8" s="66">
         <v>12</v>
       </c>
-      <c r="H8" s="67">
+      <c r="I8" s="67">
         <v>1.6339999999999999</v>
       </c>
-      <c r="I8" s="56">
+      <c r="J8" s="56">
         <v>17.700399999999998</v>
       </c>
-      <c r="J8" s="68">
-        <v>2</v>
-      </c>
-      <c r="K8" s="56">
+      <c r="K8" s="68">
+        <v>2</v>
+      </c>
+      <c r="L8" s="56">
         <v>35.389800000000001</v>
       </c>
-      <c r="L8" s="68">
-        <v>2</v>
-      </c>
-      <c r="M8" s="56"/>
+      <c r="M8" s="68">
+        <v>2</v>
+      </c>
       <c r="N8" s="56"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="55"/>
       <c r="Q8" s="56"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="61"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="56"/>
       <c r="U8" s="61"/>
       <c r="V8" s="61"/>
       <c r="W8" s="61"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="11"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="21"/>
       <c r="Z8" s="11"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
@@ -1813,49 +1853,52 @@
       <c r="C9" s="63">
         <v>0.42874999999999996</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="72">
+        <v>43</v>
+      </c>
+      <c r="E9" s="64">
         <v>43.363300000000002</v>
       </c>
-      <c r="E9" s="65">
+      <c r="F9" s="65">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="F9" s="66">
+      <c r="G9" s="66">
         <v>9</v>
       </c>
-      <c r="G9" s="66">
+      <c r="H9" s="66">
         <v>13</v>
       </c>
-      <c r="H9" s="67">
+      <c r="I9" s="67">
         <v>1.498</v>
       </c>
-      <c r="I9" s="56">
+      <c r="J9" s="56">
         <v>17.722799999999999</v>
       </c>
-      <c r="J9" s="68">
-        <v>2</v>
-      </c>
-      <c r="K9" s="56">
+      <c r="K9" s="68">
+        <v>2</v>
+      </c>
+      <c r="L9" s="56">
         <v>35.3934</v>
       </c>
-      <c r="L9" s="68">
-        <v>2</v>
-      </c>
-      <c r="M9" s="56"/>
+      <c r="M9" s="68">
+        <v>2</v>
+      </c>
       <c r="N9" s="56"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="55"/>
       <c r="Q9" s="56"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="61"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="56"/>
       <c r="U9" s="61"/>
       <c r="V9" s="61"/>
       <c r="W9" s="61"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="11"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="21"/>
       <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
@@ -1865,49 +1908,52 @@
       <c r="C10" s="63">
         <v>0.42859953703703701</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="72">
+        <v>43</v>
+      </c>
+      <c r="E10" s="64">
         <v>43.363300000000002</v>
       </c>
-      <c r="E10" s="65">
+      <c r="F10" s="65">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="F10" s="66">
+      <c r="G10" s="66">
         <v>7</v>
       </c>
-      <c r="G10" s="66">
+      <c r="H10" s="66">
         <v>15</v>
       </c>
-      <c r="H10" s="67">
+      <c r="I10" s="67">
         <v>5.1820000000000004</v>
       </c>
-      <c r="I10" s="56">
+      <c r="J10" s="56">
         <v>17.561599999999999</v>
       </c>
-      <c r="J10" s="68">
-        <v>2</v>
-      </c>
-      <c r="K10" s="56">
+      <c r="K10" s="68">
+        <v>2</v>
+      </c>
+      <c r="L10" s="56">
         <v>35.39</v>
       </c>
-      <c r="L10" s="68">
-        <v>2</v>
-      </c>
-      <c r="M10" s="56"/>
+      <c r="M10" s="68">
+        <v>2</v>
+      </c>
       <c r="N10" s="56"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="55"/>
       <c r="Q10" s="56"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="62"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="56"/>
       <c r="U10" s="62"/>
       <c r="V10" s="62"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="11"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="21"/>
       <c r="Z10" s="11"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1917,49 +1963,52 @@
       <c r="C11" s="63">
         <v>0.42848379629629635</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="72">
+        <v>43</v>
+      </c>
+      <c r="E11" s="64">
         <v>43.363300000000002</v>
       </c>
-      <c r="E11" s="65">
+      <c r="F11" s="65">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="F11" s="66">
+      <c r="G11" s="66">
         <v>5</v>
       </c>
-      <c r="G11" s="66">
+      <c r="H11" s="66">
         <v>100</v>
       </c>
-      <c r="H11" s="67">
+      <c r="I11" s="67">
         <v>8.4909999999999997</v>
       </c>
-      <c r="I11" s="56">
+      <c r="J11" s="56">
         <v>17.467600000000001</v>
       </c>
-      <c r="J11" s="68">
-        <v>2</v>
-      </c>
-      <c r="K11" s="56">
+      <c r="K11" s="68">
+        <v>2</v>
+      </c>
+      <c r="L11" s="56">
         <v>35.390099999999997</v>
       </c>
-      <c r="L11" s="68">
-        <v>2</v>
-      </c>
-      <c r="M11" s="56"/>
+      <c r="M11" s="68">
+        <v>2</v>
+      </c>
       <c r="N11" s="56"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="55"/>
       <c r="Q11" s="56"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="62"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="56"/>
       <c r="U11" s="62"/>
       <c r="V11" s="62"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="11"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="21"/>
       <c r="Z11" s="11"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="11" t="s">
         <v>55</v>
       </c>
@@ -1969,49 +2018,52 @@
       <c r="C12" s="63">
         <v>0.42829861111111112</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="72">
+        <v>43</v>
+      </c>
+      <c r="E12" s="64">
         <v>43.363300000000002</v>
       </c>
-      <c r="E12" s="65">
+      <c r="F12" s="65">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="F12" s="66">
+      <c r="G12" s="66">
         <v>3</v>
       </c>
-      <c r="G12" s="66">
+      <c r="H12" s="66">
         <v>101</v>
       </c>
-      <c r="H12" s="67">
+      <c r="I12" s="67">
         <v>13.199</v>
       </c>
-      <c r="I12" s="56">
+      <c r="J12" s="56">
         <v>16.889199999999999</v>
       </c>
-      <c r="J12" s="68">
-        <v>2</v>
-      </c>
-      <c r="K12" s="56">
+      <c r="K12" s="68">
+        <v>2</v>
+      </c>
+      <c r="L12" s="56">
         <v>35.408299999999997</v>
       </c>
-      <c r="L12" s="68">
-        <v>2</v>
-      </c>
-      <c r="M12" s="56"/>
+      <c r="M12" s="68">
+        <v>2</v>
+      </c>
       <c r="N12" s="56"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="55"/>
       <c r="Q12" s="56"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="21"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="56"/>
       <c r="U12" s="21"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="11"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="21"/>
       <c r="Z12" s="11"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="11" t="s">
         <v>56</v>
       </c>
@@ -2021,47 +2073,50 @@
       <c r="C13" s="63">
         <v>0.42798611111111112</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="72">
+        <v>43</v>
+      </c>
+      <c r="E13" s="64">
         <v>43.363300000000002</v>
       </c>
-      <c r="E13" s="65">
+      <c r="F13" s="65">
         <v>-8.3699999999999992</v>
       </c>
-      <c r="F13" s="66">
+      <c r="G13" s="66">
         <v>1</v>
       </c>
-      <c r="G13" s="66">
+      <c r="H13" s="66">
         <v>102</v>
       </c>
-      <c r="H13" s="67">
+      <c r="I13" s="67">
         <v>19.204000000000001</v>
       </c>
-      <c r="I13" s="56">
+      <c r="J13" s="56">
         <v>16.489599999999999</v>
       </c>
-      <c r="J13" s="68">
-        <v>2</v>
-      </c>
-      <c r="K13" s="56">
+      <c r="K13" s="68">
+        <v>2</v>
+      </c>
+      <c r="L13" s="56">
         <v>35.427500000000002</v>
       </c>
-      <c r="L13" s="68">
-        <v>2</v>
-      </c>
-      <c r="M13" s="56"/>
+      <c r="M13" s="68">
+        <v>2</v>
+      </c>
       <c r="N13" s="56"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="55"/>
       <c r="Q13" s="56"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="21"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="56"/>
       <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="11"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="21"/>
       <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
